--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H2">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N2">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q2">
-        <v>22.332019080896</v>
+        <v>54.35095240849733</v>
       </c>
       <c r="R2">
-        <v>200.988171728064</v>
+        <v>489.158571676476</v>
       </c>
       <c r="S2">
-        <v>0.00187232550282895</v>
+        <v>0.004868302591365525</v>
       </c>
       <c r="T2">
-        <v>0.001872325502828951</v>
+        <v>0.004868302591365523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H3">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P3">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q3">
-        <v>25.19232310507734</v>
+        <v>61.44058815680134</v>
       </c>
       <c r="R3">
-        <v>226.730907945696</v>
+        <v>552.965293411212</v>
       </c>
       <c r="S3">
-        <v>0.002112134547900934</v>
+        <v>0.00550333271606137</v>
       </c>
       <c r="T3">
-        <v>0.002112134547900935</v>
+        <v>0.005503332716061369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H4">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N4">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O4">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P4">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q4">
-        <v>11.81268978967467</v>
+        <v>27.758842685306</v>
       </c>
       <c r="R4">
-        <v>106.314208107072</v>
+        <v>249.829584167754</v>
       </c>
       <c r="S4">
-        <v>0.0009903806847959959</v>
+        <v>0.002486404373606805</v>
       </c>
       <c r="T4">
-        <v>0.0009903806847959963</v>
+        <v>0.002486404373606805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H5">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N5">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O5">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P5">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q5">
-        <v>33.14748260058666</v>
+        <v>64.16689694087667</v>
       </c>
       <c r="R5">
-        <v>298.32734340528</v>
+        <v>577.50207246789</v>
       </c>
       <c r="S5">
-        <v>0.002779098334227612</v>
+        <v>0.005747532597208282</v>
       </c>
       <c r="T5">
-        <v>0.002779098334227612</v>
+        <v>0.005747532597208281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.916541</v>
       </c>
       <c r="I6">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J6">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N6">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q6">
-        <v>2814.849034399271</v>
+        <v>2808.970185335216</v>
       </c>
       <c r="R6">
-        <v>25333.64130959344</v>
+        <v>25280.73166801694</v>
       </c>
       <c r="S6">
-        <v>0.235998080362904</v>
+        <v>0.2516039963670989</v>
       </c>
       <c r="T6">
-        <v>0.2359980803629041</v>
+        <v>0.2516039963670988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.916541</v>
       </c>
       <c r="I7">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J7">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P7">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q7">
         <v>3175.377296147118</v>
@@ -883,10 +883,10 @@
         <v>28578.39566532405</v>
       </c>
       <c r="S7">
-        <v>0.2662249154966129</v>
+        <v>0.2844236730795433</v>
       </c>
       <c r="T7">
-        <v>0.266224915496613</v>
+        <v>0.2844236730795432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.916541</v>
       </c>
       <c r="I8">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J8">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N8">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O8">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P8">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q8">
-        <v>1488.935609793047</v>
+        <v>1434.634684897344</v>
       </c>
       <c r="R8">
-        <v>13400.42048813743</v>
+        <v>12911.71216407609</v>
       </c>
       <c r="S8">
-        <v>0.1248329631184359</v>
+        <v>0.1285025458552345</v>
       </c>
       <c r="T8">
-        <v>0.124832963118436</v>
+        <v>0.1285025458552345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.916541</v>
       </c>
       <c r="I9">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J9">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N9">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O9">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P9">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q9">
-        <v>4178.088826318719</v>
+        <v>3316.278600560834</v>
       </c>
       <c r="R9">
-        <v>37602.79943686847</v>
+        <v>29846.50740504751</v>
       </c>
       <c r="S9">
-        <v>0.3502926553243547</v>
+        <v>0.2970444304905365</v>
       </c>
       <c r="T9">
-        <v>0.3502926553243548</v>
+        <v>0.2970444304905364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H10">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N10">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q10">
-        <v>42.30601970551334</v>
+        <v>47.18697293804289</v>
       </c>
       <c r="R10">
-        <v>380.75417734962</v>
+        <v>424.6827564423861</v>
       </c>
       <c r="S10">
-        <v>0.003546953785543635</v>
+        <v>0.004226613379401501</v>
       </c>
       <c r="T10">
-        <v>0.003546953785543636</v>
+        <v>0.0042266133794015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H11">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P11">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q11">
-        <v>47.7246107416589</v>
+        <v>53.34212635065357</v>
       </c>
       <c r="R11">
-        <v>429.5214966749301</v>
+        <v>480.079137155882</v>
       </c>
       <c r="S11">
-        <v>0.004001250647355586</v>
+        <v>0.00477794041197398</v>
       </c>
       <c r="T11">
-        <v>0.004001250647355588</v>
+        <v>0.004777940411973979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H12">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N12">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O12">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P12">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q12">
-        <v>22.37808794658444</v>
+        <v>24.09995962422433</v>
       </c>
       <c r="R12">
-        <v>201.40279151926</v>
+        <v>216.899636618019</v>
       </c>
       <c r="S12">
-        <v>0.001876187935142053</v>
+        <v>0.002158672308234894</v>
       </c>
       <c r="T12">
-        <v>0.001876187935142054</v>
+        <v>0.002158672308234893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H13">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N13">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O13">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P13">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q13">
-        <v>62.79495136596112</v>
+        <v>55.70908135537945</v>
       </c>
       <c r="R13">
-        <v>565.15456229365</v>
+        <v>501.381732198415</v>
       </c>
       <c r="S13">
-        <v>0.005264754094356407</v>
+        <v>0.004989952394699623</v>
       </c>
       <c r="T13">
-        <v>0.005264754094356409</v>
+        <v>0.004989952394699623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H14">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N14">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q14">
-        <v>0.5999225979946666</v>
+        <v>10.71095184916467</v>
       </c>
       <c r="R14">
-        <v>5.399303381952</v>
+        <v>96.39856664248201</v>
       </c>
       <c r="S14">
-        <v>5.029775301014778E-05</v>
+        <v>0.0009593972567650422</v>
       </c>
       <c r="T14">
-        <v>5.02977530101478E-05</v>
+        <v>0.000959397256765042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H15">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P15">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q15">
-        <v>0.6767611953031112</v>
+        <v>12.10810762589267</v>
       </c>
       <c r="R15">
-        <v>6.090850757728</v>
+        <v>108.972968633034</v>
       </c>
       <c r="S15">
-        <v>5.673993205455295E-05</v>
+        <v>0.001084542756282045</v>
       </c>
       <c r="T15">
-        <v>5.673993205455297E-05</v>
+        <v>0.001084542756282045</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H16">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N16">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O16">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P16">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q16">
-        <v>0.3173335792995555</v>
+        <v>5.470440060666999</v>
       </c>
       <c r="R16">
-        <v>2.856002213696</v>
+        <v>49.233960546003</v>
       </c>
       <c r="S16">
-        <v>2.660537550475317E-05</v>
+        <v>0.0004899961517342476</v>
       </c>
       <c r="T16">
-        <v>2.660537550475318E-05</v>
+        <v>0.0004899961517342475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H17">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N17">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O17">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P17">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q17">
-        <v>0.8904669034488889</v>
+        <v>12.64538178242833</v>
       </c>
       <c r="R17">
-        <v>8.014202131039999</v>
+        <v>113.808436041855</v>
       </c>
       <c r="S17">
-        <v>7.465710497170086E-05</v>
+        <v>0.001132667270253347</v>
       </c>
       <c r="T17">
-        <v>7.465710497170087E-05</v>
+        <v>0.001132667270253347</v>
       </c>
     </row>
   </sheetData>
